--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040221.xlsx_with_dialog_acts.xlsx
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2255,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5069,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6483,12 +6483,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6939,12 +6939,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7053,12 +7053,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7437,12 +7437,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7555,12 +7555,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7935,12 +7935,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8239,12 +8239,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8315,12 +8315,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8429,12 +8429,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8467,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8733,12 +8733,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8771,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8847,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9037,12 +9037,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9227,12 +9227,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9683,12 +9683,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9721,12 +9721,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9987,12 +9987,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10779,12 +10779,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11045,12 +11045,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11197,12 +11197,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11235,12 +11235,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11387,12 +11387,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11425,12 +11425,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11577,12 +11577,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11653,12 +11653,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11995,12 +11995,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12033,12 +12033,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12071,12 +12071,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12717,12 +12717,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13743,12 +13743,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14313,12 +14313,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14583,12 +14583,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15189,12 +15189,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
